--- a/DataDefinitionTable.xlsx
+++ b/DataDefinitionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hajimesato/Desktop/vote/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B956771F-449B-914E-8E55-A8CB2A2D36E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3840A638-A09A-F848-9D64-44F61C249FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="3820" windowWidth="19200" windowHeight="21100" xr2:uid="{3AF97569-97BD-F44C-BD12-BA12BA45403F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{3AF97569-97BD-F44C-BD12-BA12BA45403F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="75">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -117,14 +117,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>area</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>prefecture</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>項目和名</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
@@ -138,13 +130,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>都道府県</t>
-    <rPh sb="0" eb="4">
-      <t>トドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>constituency</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -156,26 +141,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全47都道府県</t>
-    <rPh sb="0" eb="1">
-      <t>ゼn</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>トドウフケn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>都道府県ごとに小選挙区を記載</t>
-    <rPh sb="0" eb="4">
-      <t>トドウ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ショウセンキョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NotNull</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -564,6 +529,20 @@
   </si>
   <si>
     <t>AutoField</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>party</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>政党名</t>
+    <rPh sb="0" eb="2">
+      <t>セイト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>m</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -987,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522FC04F-3EFE-8F4B-BC78-9058E7B01F36}">
-  <dimension ref="B2:M35"/>
+  <dimension ref="B2:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1004,91 +983,119 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3">
         <v>100</v>
@@ -1097,838 +1104,698 @@
         <v>9</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3">
+        <v>100</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="J11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="3">
-        <v>100</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="K11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="3">
-        <v>100</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="3">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H12" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="3">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="3">
         <v>4</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="3">
-        <v>100</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="B16" s="3">
         <v>6</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="3">
+      <c r="E20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="3">
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="3"/>
+      <c r="H20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="3">
-        <v>6</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H21" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="L21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="3">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>68</v>
+        <v>2</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="L22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="3"/>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="2" t="s">
+      <c r="I26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="3"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="3">
-        <v>2</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7" t="s">
+      <c r="G27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>56</v>
+      <c r="H27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="3">
+        <v>100</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="3">
         <v>3</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" s="3"/>
+      <c r="J29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="3"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="B31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="B30" s="3">
         <v>4</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="3">
-        <v>2</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="3">
-        <v>3</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="I30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="3">
-        <v>4</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" s="3" t="s">
+      <c r="J30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
